--- a/scenarios_and_results/Scenario_low_discount_bio_NoH2demand_tilde_G.xlsx
+++ b/scenarios_and_results/Scenario_low_discount_bio_NoH2demand_tilde_G.xlsx
@@ -1209,13 +1209,13 @@
         <v>0.007246356791028846</v>
       </c>
       <c r="J2">
-        <v>0</v>
+        <v>0.0006557741121762849</v>
       </c>
       <c r="K2">
         <v>2.246370605218942E-05</v>
       </c>
       <c r="L2">
-        <v>2.246370605218942E-05</v>
+        <v>0.0006782378182284743</v>
       </c>
       <c r="M2">
         <v>0.0005525489125649714</v>
@@ -1227,7 +1227,7 @@
         <v>0.007246356791028846</v>
       </c>
       <c r="P2">
-        <v>79.35196060578187</v>
+        <v>169.8490381148756</v>
       </c>
       <c r="Q2">
         <v>0.05714559561832951</v>
@@ -1248,7 +1248,7 @@
         <v>169.8490381148138</v>
       </c>
       <c r="W2">
-        <v>0</v>
+        <v>90.4970775090937</v>
       </c>
       <c r="X2">
         <v>3.100000000000001</v>
@@ -1496,13 +1496,13 @@
         <v>0</v>
       </c>
       <c r="J6">
-        <v>0</v>
+        <v>0.0004465561998303783</v>
       </c>
       <c r="K6">
         <v>0</v>
       </c>
       <c r="L6">
-        <v>0</v>
+        <v>0.0004465561998303783</v>
       </c>
       <c r="M6">
         <v>0.00527821919147929</v>
@@ -1514,7 +1514,7 @@
         <v>0.06207204534615938</v>
       </c>
       <c r="P6">
-        <v>85.03375653313914</v>
+        <v>92.22791611560582</v>
       </c>
       <c r="Q6">
         <v>0.2278472686870546</v>
@@ -1535,7 +1535,7 @@
         <v>92.2279161156053</v>
       </c>
       <c r="W6">
-        <v>0</v>
+        <v>7.194159582466673</v>
       </c>
       <c r="X6">
         <v>0</v>
@@ -1573,13 +1573,13 @@
         <v>0</v>
       </c>
       <c r="J7">
-        <v>0</v>
+        <v>0.000990470819028871</v>
       </c>
       <c r="K7">
         <v>0</v>
       </c>
       <c r="L7">
-        <v>0</v>
+        <v>0.000990470819028871</v>
       </c>
       <c r="M7">
         <v>0.0196902009291896</v>
@@ -1591,7 +1591,7 @@
         <v>0.1615761529702693</v>
       </c>
       <c r="P7">
-        <v>121.863285931883</v>
+        <v>127.9933416413485</v>
       </c>
       <c r="Q7">
         <v>0.88120676447697</v>
@@ -1612,7 +1612,7 @@
         <v>127.9933416325912</v>
       </c>
       <c r="W7">
-        <v>0</v>
+        <v>6.130055709465504</v>
       </c>
       <c r="X7">
         <v>0</v>
